--- a/Netbeans/ANA-ADDIX/output/data_storage/wired.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/wired.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2700BAB-E002-414B-A944-E9BB689ADCCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF26EA-4D0F-45B3-A7EB-CB9FAC20544C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="932" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -37,18 +37,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/06/qualcomm-snapdragon-865-5g/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/event/kyotouniversity-vol35/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/05/amazon-joins-quantum-computing-race/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/05/larry-page-sergey-brin-step-down/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/culture/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/news/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/03/lil-bub-cat-obit/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/03/airmega-ws/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/02/brewdog-hybrid-plant-beef-burger/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/02/tiktok-time/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/02/why-lightning-strikes-twice-as-much-over-shipping-lanes/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/11/05/oracle-ana-ws/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/10/09/exclusive-playstation-5/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/06/14/how-i-became-a-robot-in-london/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2018/10/06/native-instruments-traktor-pro-3/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2018/04/21/ready-player-one-movie-vs-book/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2016/10/09/ceatec-japan-2016-sensing/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/innovationinsights/post/wired/w/new-economy/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2015/04/12/apples-haptic-tech/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2015/01/19/next-world-06/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2003/07/04/%E3%82%A4%E3%83%B3%E3%82%BF%E3%83%BC%E3%83%8D%E3%83%83%E3%83%88%E4%B8%8A%E3%81%A7%E8%A7%A6%E8%A6%9A%E3%82%92%E5%85%B1%E6%9C%89%E3%81%A7%E3%81%8D%E3%82%8B%E3%80%8E%E3%83%8F%E3%83%97%E3%83%86%E3%82%A3/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2001/08/22/%E8%A7%A6%E8%A6%9A%E3%82%A4%E3%83%B3%E3%82%BF%E3%83%BC%E3%83%95%E3%82%A7%E3%83%BC%E3%82%B9%E3%80%8E%E3%83%8F%E3%83%97%E3%83%86%E3%82%A3%E3%83%83%E3%82%AF%E3%82%B9%E3%80%8F%E3%81%AE%E5%8F%AF%E8%83%BD/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/waia/2019/17_kiyoko-ojima/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/membership/2019/12/05/is-amazon-unstoppable/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/membership/2019/12/03/how-to-practice-long-term-thinking/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/12/03/apple-china-iphone-sales-hong-kong-protests/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/series/away-from-animals-and-machines/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/series/away-from-animals-and-machines/chapter12-4/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/membership/2019/12/02/hidden-costs-automated-thinking/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/11/30/los-angeles-blade-runner-theory/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/waia/2019/16_yukiko-ogawa/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/membership/2019/11/28/will-artificial-intelligence3/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/11/27/viral-app-labels-you-isnt-what-you-think/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/membership/2019/11/21/will-artificial-intelligence2/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/11/15/ars-hakuhodo-ws/</t>
+  </si>
+  <si>
+    <t>https://wired.jp/2019/11/15/microsoft-sends-a-new-kind-of-ai-processor-into-the-cloud/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,25 +535,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD706"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +647,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +703,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +731,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +759,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +787,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -681,11 +865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -705,7 +891,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD154"/>
@@ -713,17 +899,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD7"/>
@@ -741,17 +982,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +1065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +1093,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +1121,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +1149,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -879,7 +1175,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -907,7 +1203,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
